--- a/25maj/e_digkultfor_25maj_fl/1B_Siparadicsomok/siparadicsom.xlsx
+++ b/25maj/e_digkultfor_25maj_fl/1B_Siparadicsomok/siparadicsom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\git\emelt_dk\25maj\e_digkultfor_25maj_fl\1B_Siparadicsomok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9521BD60-F3AB-421A-9A95-73A4ACA482F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767B2E39-6B8F-4C45-9433-F5269B8AE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DDC0A9EF-AC77-4377-814A-E0DAE12B23EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DDC0A9EF-AC77-4377-814A-E0DAE12B23EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Alapadatok" sheetId="1" r:id="rId1"/>
@@ -1785,7 +1785,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1793,25 +1793,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-979B-4DCF-958D-DC94EBA09529}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Olaszország!$A$2:$A$45</c:f>
@@ -2095,7 +2076,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-979B-4DCF-958D-DC94EBA09529}"/>
+              <c16:uniqueId val="{00000000-6154-407F-A7BF-87EF61817B82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2115,7 +2096,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2406,7 +2387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-979B-4DCF-958D-DC94EBA09529}"/>
+              <c16:uniqueId val="{00000001-6154-407F-A7BF-87EF61817B82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2426,7 +2407,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2717,7 +2698,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-979B-4DCF-958D-DC94EBA09529}"/>
+              <c16:uniqueId val="{00000002-6154-407F-A7BF-87EF61817B82}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3474,26 +3455,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3057525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>333373</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1">
+        <xdr:cNvPr id="3" name="Diagram 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB92E79-A57C-4686-8431-BCBC820BEC84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6D1BE4-AEFB-4CDE-8236-C1100A3E0A0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -31946,7 +31929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF645584-16C6-4345-9BCD-26EA3F19A8BF}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" activeCellId="2" sqref="A1:A1048576 K1:L1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -35448,7 +35431,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35456,10 +35438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E82ADF5-95BD-4266-BAC4-CB9F040FD609}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>